--- a/day11.xlsx
+++ b/day11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA14\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA14\EXCEL\DA14_DataValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A705000C-872D-4223-9EA8-1900BD5800CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED93F38-76B2-4033-89C3-D3F449F1BA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="C4:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +563,7 @@
         <v>1646</v>
       </c>
       <c r="L5" s="4">
-        <f>AVERAGE(D5:K5)</f>
+        <f t="shared" ref="L5:L11" si="0">AVERAGE(D5:K5)</f>
         <v>1101.125</v>
       </c>
     </row>
@@ -596,7 +596,7 @@
         <v>776</v>
       </c>
       <c r="L6" s="4">
-        <f>AVERAGE(D6:K6)</f>
+        <f t="shared" si="0"/>
         <v>718.75</v>
       </c>
     </row>
@@ -629,7 +629,7 @@
         <v>1973</v>
       </c>
       <c r="L7" s="4">
-        <f>AVERAGE(D7:K7)</f>
+        <f t="shared" si="0"/>
         <v>895.375</v>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>1241</v>
       </c>
       <c r="L8" s="4">
-        <f>AVERAGE(D8:K8)</f>
+        <f t="shared" si="0"/>
         <v>887.625</v>
       </c>
     </row>
@@ -695,7 +695,7 @@
         <v>1477</v>
       </c>
       <c r="L9" s="4">
-        <f>AVERAGE(D9:K9)</f>
+        <f t="shared" si="0"/>
         <v>657.875</v>
       </c>
     </row>
@@ -728,7 +728,7 @@
         <v>1339</v>
       </c>
       <c r="L10" s="4">
-        <f>AVERAGE(D10:K10)</f>
+        <f t="shared" si="0"/>
         <v>846.5</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         <v>1468</v>
       </c>
       <c r="L11" s="4">
-        <f>AVERAGE(D11:K11)</f>
+        <f t="shared" si="0"/>
         <v>822</v>
       </c>
     </row>
@@ -776,7 +776,7 @@
     <sortCondition descending="1" ref="G4:G11"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="whole no restrictons" error="you can only enter value between 200 to 2000" sqref="C4:L11" xr:uid="{271F1977-0B6B-4DD4-A41E-5D8FA2C64CF6}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:L11" xr:uid="{502FD040-4A8F-41FC-91ED-76A72202802C}">
       <formula1>200</formula1>
       <formula2>2000</formula2>
     </dataValidation>
